--- a/thread_strength/summarized_data/integral_control.xlsx
+++ b/thread_strength/summarized_data/integral_control.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">mussel</t>
   </si>
@@ -23,10 +23,109 @@
     <t xml:space="preserve">auc</t>
   </si>
   <si>
+    <t xml:space="preserve">G28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T57</t>
+  </si>
+  <si>
     <t xml:space="preserve">T58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
   </si>
 </sst>
 </file>
@@ -377,6 +476,930 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
+        <v>0.179692984150595</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.263125001024581</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.076540570393249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.273339213133971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0198953133919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.37170250944692</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.11253549259134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.193543468727241</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.80411237261945</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.242976153060752</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.58103712528359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.443745404510893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.430585407686116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.135134717160769</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.240439515047792</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.245523064488185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.69061345527425</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.756023435014641</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.667967817281106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.370682392918067</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.273708887798214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.378439447746792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.00004119269248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.793496655657292</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.210420092922101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.523464111794872</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.28805482522275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.492934599061512</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.10148659852088</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.084310382573428</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0350850902805546</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.234471403738663</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.245195530451986</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.980721331522084</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.47077025787491</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.519898390909091</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.70848243847461</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.18664563295616</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.293875228576557</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.00688152957746</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.24731350665164</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.276504183357356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.558608817499495</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.474241506525802</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.398586843224299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.348496204103527</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.295518097018083</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0761787722842886</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.22766333739364</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.406050352156382</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.223449965454546</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.465963966351108</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.108715163303903</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0558033366446877</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.49618739375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.35888822589895</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.205269372433868</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.33259011499748</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0877670378204362</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.363457821476744</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.14876421202948</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.706422700653736</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.432382347470233</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.790233693737491</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.730729305649718</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9958893292062</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.642948030883435</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.42485930727701</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.390346603563956</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.053723863768116</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.157390608443112</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.05138779714286</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0851419529793792</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.201476578017984</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.349384981985005</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.615000840103553</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.828555419446155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0652454959277768</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.343399704639175</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.336737629252917</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.197904608287293</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.186071436082481</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0455081681339704</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.23514499058402</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
         <v>0.322754007773647</v>
       </c>
     </row>

--- a/thread_strength/summarized_data/integral_control.xlsx
+++ b/thread_strength/summarized_data/integral_control.xlsx
@@ -1,139 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\OneDrive\Desktop\Threads\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF4D45-5F65-4B4D-9F06-40F467FDE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">mussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="39">
+  <si>
+    <t>mussel</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>T55</t>
+  </si>
+  <si>
+    <t>T56</t>
+  </si>
+  <si>
+    <t>T57</t>
+  </si>
+  <si>
+    <t>T58</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +179,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,14 +469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,943 +489,982 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.179692984150595</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>0.17969298415059501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.263125001024581</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>0.26312500102458097</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.076540570393249</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>7.6540570393249005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.273339213133971</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>0.27333921313397103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.0198953133919</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.37170250944692</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.11253549259134</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.193543468727241</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>0.19354346872724101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.80411237261945</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>1.8041123726194499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.242976153060752</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>0.24297615306075199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.58103712528359</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>0.58103712528358997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.443745404510893</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.430585407686116</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>0.43058540768611597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.135134717160769</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.240439515047792</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>0.24043951504779201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.245523064488185</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>0.24552306448818501</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.69061345527425</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.756023435014641</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19">
+        <v>0.75602343501464098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.667967817281106</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>0.66796781728110599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.370682392918067</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>0.37068239291806698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.273708887798214</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>0.27370888779821401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.378439447746792</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.00004119269248</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24">
+        <v>2.0000411926924802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.793496655657292</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>0.79349665565729199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.210420092922101</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>0.21042009292210101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.523464111794872</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>0.52346411179487196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.28805482522275</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.492934599061512</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>0.49293459906151199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.10148659852088</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.084310382573428</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>8.4310382573428003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.0350850902805546</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>3.50850902805546E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.234471403738663</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>0.23447140373866299</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.245195530451986</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.980721331522084</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>0.98072133152208396</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.47077025787491</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.519898390909091</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37">
+        <v>0.51989839090909096</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.70848243847461</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.18664563295616</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39">
+        <v>2.1866456329561599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.293875228576557</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40">
+        <v>0.29387522857655701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.00688152957746</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.24731350665164</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42">
+        <v>1.2473135066516401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.276504183357356</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>0.27650418335735599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.558608817499495</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44">
+        <v>0.55860881749949498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.474241506525802</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45">
+        <v>0.47424150652580199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.398586843224299</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>0.39858684322429899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.348496204103527</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.295518097018083</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48">
+        <v>0.29551809701808301</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.0761787722842886</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49">
+        <v>7.6178772284288598E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.22766333739364</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>1.2276633373936401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.406050352156382</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>0.40605035215638202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.223449965454546</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>0.22344996545454601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.465963966351108</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>0.46596396635110798</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.108715163303903</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.0558033366446877</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55">
+        <v>5.5803336644687701E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.49618739375</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56">
+        <v>0.49618739374999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" t="n">
-        <v>0.35888822589895</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57">
+        <v>0.35888822589894998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.205269372433868</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" t="n">
-        <v>0.33259011499748</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>0.33259011499747998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="n">
-        <v>0.0877670378204362</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60">
+        <v>8.7767037820436197E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.363457821476744</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>0.36345782147674399</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="n">
-        <v>1.14876421202948</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="C62">
+        <v>1.1487642120294801</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="C63" t="n">
-        <v>0.706422700653736</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>0.70642270065373602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" t="n">
-        <v>0.432382347470233</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64">
+        <v>0.43238234747023302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" t="n">
-        <v>0.790233693737491</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>0.79023369373749097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66" t="n">
-        <v>0.730729305649718</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>0.73072930564971805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="n">
-        <v>0.9958893292062</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67">
+        <v>0.99588932920619999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.642948030883435</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" t="n">
-        <v>1.42485930727701</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>1.4248593072770099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" t="n">
-        <v>0.390346603563956</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70">
+        <v>0.39034660356395601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" t="n">
-        <v>0.053723863768116</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71">
+        <v>5.3723863768115998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72" t="n">
-        <v>0.157390608443112</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>0.15739060844311201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1.05138779714286</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" t="n">
-        <v>0.0851419529793792</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="C74">
+        <v>8.5141952979379196E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" t="n">
-        <v>0.201476578017984</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>0.20147657801798399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.349384981985005</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="C76">
+        <v>0.34938498198500501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.615000840103553</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77">
+        <v>0.61500084010355305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.828555419446155</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="C78">
+        <v>0.82855541944615496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" t="n">
-        <v>0.0652454959277768</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>6.52454959277768E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" t="n">
-        <v>0.343399704639175</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="C80">
+        <v>0.34339970463917502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.336737629252917</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.197904608287293</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.186071436082481</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84" t="n">
-        <v>0.0455081681339704</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C84">
+        <v>4.5508168133970399E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.23514499058402</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" t="n">
-        <v>0.322754007773647</v>
+      <c r="C86">
+        <v>0.32275400777364699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/thread_strength/summarized_data/integral_control.xlsx
+++ b/thread_strength/summarized_data/integral_control.xlsx
@@ -1,149 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\OneDrive\Desktop\Threads\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF4D45-5F65-4B4D-9F06-40F467FDE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="39">
-  <si>
-    <t>mussel</t>
-  </si>
-  <si>
-    <t>thread</t>
-  </si>
-  <si>
-    <t>auc</t>
-  </si>
-  <si>
-    <t>G28</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>T01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
-    <t>T27</t>
-  </si>
-  <si>
-    <t>T29</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>T31</t>
-  </si>
-  <si>
-    <t>T33</t>
-  </si>
-  <si>
-    <t>T34</t>
-  </si>
-  <si>
-    <t>T36</t>
-  </si>
-  <si>
-    <t>T37</t>
-  </si>
-  <si>
-    <t>T38</t>
-  </si>
-  <si>
-    <t>T39</t>
-  </si>
-  <si>
-    <t>T40</t>
-  </si>
-  <si>
-    <t>T41</t>
-  </si>
-  <si>
-    <t>T46</t>
-  </si>
-  <si>
-    <t>T47</t>
-  </si>
-  <si>
-    <t>T49</t>
-  </si>
-  <si>
-    <t>T51</t>
-  </si>
-  <si>
-    <t>T52</t>
-  </si>
-  <si>
-    <t>T55</t>
-  </si>
-  <si>
-    <t>T56</t>
-  </si>
-  <si>
-    <t>T57</t>
-  </si>
-  <si>
-    <t>T58</t>
-  </si>
-  <si>
-    <t>?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">mussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -179,15 +169,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -469,16 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,982 +468,943 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.17969298415059501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="n">
+        <v>0.179692984150595</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>0.26312500102458097</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="n">
+        <v>0.263125001024581</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>7.6540570393249005E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="n">
+        <v>0.076540570393249</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0.27333921313397103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="n">
+        <v>0.273339213133971</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>1.0198953133919</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>1.37170250944692</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1.11253549259134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>0.19354346872724101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="n">
+        <v>0.193543468727241</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>1.8041123726194499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="n">
+        <v>1.80411237261945</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>0.24297615306075199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="n">
+        <v>0.242976153060752</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>0.58103712528358997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="n">
+        <v>0.58103712528359</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.443745404510893</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <v>0.43058540768611597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="n">
+        <v>0.430585407686116</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.135134717160769</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>0.24043951504779201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="n">
+        <v>0.240439515047792</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.24552306448818501</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="n">
+        <v>0.245523064488185</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>1.69061345527425</v>
       </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>0.75602343501464098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="n">
+        <v>0.756023435014641</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
-        <v>0.66796781728110599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="n">
+        <v>0.667967817281106</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>0.37068239291806698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="n">
+        <v>0.370682392918067</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>0.27370888779821401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="n">
+        <v>0.273708887798214</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0.378439447746792</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>2.0000411926924802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="n">
+        <v>2.00004119269248</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>0.79349665565729199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="n">
+        <v>0.793496655657292</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
-        <v>0.21042009292210101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="n">
+        <v>0.210420092922101</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>0.52346411179487196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="n">
+        <v>0.523464111794872</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.28805482522275</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>0.49293459906151199</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="n">
+        <v>0.492934599061512</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.10148659852088</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>8.4310382573428003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="n">
+        <v>0.084310382573428</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32">
-        <v>3.50850902805546E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="n">
+        <v>0.0350850902805546</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>0.23447140373866299</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="n">
+        <v>0.234471403738663</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.245195530451986</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>0.98072133152208396</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="n">
+        <v>0.980721331522084</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>1.47077025787491</v>
       </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37">
-        <v>0.51989839090909096</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="n">
+        <v>0.519898390909091</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>1.70848243847461</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>2.1866456329561599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="n">
+        <v>2.18664563295616</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>0.29387522857655701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="n">
+        <v>0.293875228576557</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>1.00688152957746</v>
       </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42">
-        <v>1.2473135066516401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="n">
+        <v>1.24731350665164</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43">
-        <v>0.27650418335735599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="n">
+        <v>0.276504183357356</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
-        <v>0.55860881749949498</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="n">
+        <v>0.558608817499495</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45">
-        <v>0.47424150652580199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="n">
+        <v>0.474241506525802</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46">
-        <v>0.39858684322429899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="n">
+        <v>0.398586843224299</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.348496204103527</v>
       </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48">
-        <v>0.29551809701808301</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="n">
+        <v>0.295518097018083</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49">
-        <v>7.6178772284288598E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="n">
+        <v>0.0761787722842886</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50">
-        <v>1.2276633373936401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="n">
+        <v>1.22766333739364</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51">
-        <v>0.40605035215638202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="n">
+        <v>0.406050352156382</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
-        <v>0.22344996545454601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="n">
+        <v>0.223449965454546</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53">
-        <v>0.46596396635110798</v>
-      </c>
-      <c r="D53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="n">
+        <v>0.465963966351108</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.108715163303903</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55">
-        <v>5.5803336644687701E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="n">
+        <v>0.0558033366446877</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56">
-        <v>0.49618739374999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="n">
+        <v>0.49618739375</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57">
-        <v>0.35888822589894998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="n">
+        <v>0.35888822589895</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.205269372433868</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59">
-        <v>0.33259011499747998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="n">
+        <v>0.33259011499748</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60">
-        <v>8.7767037820436197E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="n">
+        <v>0.0877670378204362</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>0.36345782147674399</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="n">
+        <v>0.363457821476744</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
-        <v>1.1487642120294801</v>
-      </c>
-      <c r="D62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="n">
+        <v>1.14876421202948</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>28</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="C63">
-        <v>0.70642270065373602</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="n">
+        <v>0.706422700653736</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64">
-        <v>0.43238234747023302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="n">
+        <v>0.432382347470233</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65">
-        <v>0.79023369373749097</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="n">
+        <v>0.790233693737491</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66">
-        <v>0.73072930564971805</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="n">
+        <v>0.730729305649718</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67">
-        <v>0.99588932920619999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="n">
+        <v>0.9958893292062</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.642948030883435</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
-        <v>1.4248593072770099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="n">
+        <v>1.42485930727701</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70">
-        <v>0.39034660356395601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="n">
+        <v>0.390346603563956</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71">
-        <v>5.3723863768115998E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="n">
+        <v>0.053723863768116</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72">
-        <v>0.15739060844311201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="n">
+        <v>0.157390608443112</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>1.05138779714286</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74">
-        <v>8.5141952979379196E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="n">
+        <v>0.0851419529793792</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75">
-        <v>0.20147657801798399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="n">
+        <v>0.201476578017984</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76">
-        <v>0.34938498198500501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="n">
+        <v>0.349384981985005</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>34</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77">
-        <v>0.61500084010355305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="n">
+        <v>0.615000840103553</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78">
-        <v>0.82855541944615496</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="n">
+        <v>0.828555419446155</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79">
-        <v>6.52454959277768E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="n">
+        <v>0.0652454959277768</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>35</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80">
-        <v>0.34339970463917502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="n">
+        <v>0.343399704639175</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.336737629252917</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.197904608287293</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.186071436082481</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84">
-        <v>4.5508168133970399E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="n">
+        <v>0.0455081681339704</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.23514499058402</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>37</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86">
-        <v>0.32275400777364699</v>
+      <c r="C86" t="n">
+        <v>0.322754007773647</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/thread_strength/summarized_data/integral_control.xlsx
+++ b/thread_strength/summarized_data/integral_control.xlsx
@@ -1,139 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\OneDrive\Desktop\Threads\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F391C1-9BE3-448D-9C9D-D63CD6F87BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">mussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
+  <si>
+    <t>mussel</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>T55</t>
+  </si>
+  <si>
+    <t>T56</t>
+  </si>
+  <si>
+    <t>T57</t>
+  </si>
+  <si>
+    <t>T58</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Double peak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +188,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,14 +478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,944 +500,971 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.179692984150595</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>0.17969298415059501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.263125001024581</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>0.26312500102458097</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.076540570393249</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>7.6540570393249005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.273339213133971</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>0.27333921313397103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.0198953133919</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.37170250944692</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.11253549259134</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.193543468727241</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>0.19354346872724101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.80411237261945</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>1.8041123726194499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.242976153060752</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>0.24297615306075199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.58103712528359</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>0.58103712528358997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.443745404510893</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.430585407686116</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>0.43058540768611597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.135134717160769</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.240439515047792</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>0.24043951504779201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.245523064488185</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>0.24552306448818501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.69061345527425</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.756023435014641</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19">
+        <v>0.75602343501464098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.667967817281106</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>0.66796781728110599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.370682392918067</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>0.37068239291806698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.273708887798214</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>0.27370888779821401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.378439447746792</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.00004119269248</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24">
+        <v>2.0000411926924802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.793496655657292</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>0.79349665565729199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.210420092922101</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>0.21042009292210101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.523464111794872</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>0.52346411179487196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.28805482522275</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.492934599061512</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>0.49293459906151199</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.10148659852088</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.084310382573428</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>8.4310382573428003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.0350850902805546</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>3.50850902805546E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.234471403738663</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>0.23447140373866299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.245195530451986</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.980721331522084</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>0.98072133152208396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.47077025787491</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.519898390909091</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37">
+        <v>0.51989839090909096</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.70848243847461</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.18664563295616</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39">
+        <v>2.1866456329561599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.293875228576557</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40">
+        <v>0.29387522857655701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.00688152957746</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.24731350665164</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42">
+        <v>1.2473135066516401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.276504183357356</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>0.27650418335735599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.558608817499495</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44">
+        <v>0.55860881749949498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.474241506525802</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45">
+        <v>0.47424150652580199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.398586843224299</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>0.39858684322429899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.348496204103527</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.295518097018083</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48">
+        <v>0.29551809701808301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.0761787722842886</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49">
+        <v>7.6178772284288598E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.22766333739364</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>1.2276633373936401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.406050352156382</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>0.40605035215638202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.223449965454546</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>0.22344996545454601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.465963966351108</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>0.46596396635110798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.108715163303903</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.0558033366446877</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55">
+        <v>5.5803336644687701E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.49618739375</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56">
+        <v>0.49618739374999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" t="n">
-        <v>0.35888822589895</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57">
+        <v>0.35888822589894998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.205269372433868</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" t="n">
-        <v>0.33259011499748</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>0.33259011499747998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="n">
-        <v>0.0877670378204362</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60">
+        <v>8.7767037820436197E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.363457821476744</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>0.36345782147674399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="n">
-        <v>1.14876421202948</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="C62">
+        <v>1.1487642120294801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="C63" t="n">
-        <v>0.706422700653736</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>0.70642270065373602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" t="n">
-        <v>0.432382347470233</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64">
+        <v>0.43238234747023302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" t="n">
-        <v>0.790233693737491</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>0.79023369373749097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66" t="n">
-        <v>0.730729305649718</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>0.73072930564971805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="n">
-        <v>0.9958893292062</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67">
+        <v>0.99588932920619999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.642948030883435</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" t="n">
-        <v>1.42485930727701</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>1.4248593072770099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" t="n">
-        <v>0.390346603563956</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70">
+        <v>0.39034660356395601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" t="n">
-        <v>0.053723863768116</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71">
+        <v>5.3723863768115998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72" t="n">
-        <v>0.157390608443112</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>0.15739060844311201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1.05138779714286</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" t="n">
-        <v>0.0851419529793792</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="C74">
+        <v>8.5141952979379196E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" t="n">
-        <v>0.201476578017984</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>0.20147657801798399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.349384981985005</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="C76">
+        <v>0.34938498198500501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.615000840103553</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77">
+        <v>0.61500084010355305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.828555419446155</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="C78">
+        <v>0.82855541944615496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" t="n">
-        <v>0.0652454959277768</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>6.52454959277768E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" t="n">
-        <v>0.343399704639175</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="C80">
+        <v>0.34339970463917502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.336737629252917</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.197904608287293</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.186071436082481</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84" t="n">
-        <v>0.0455081681339704</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C84">
+        <v>4.5508168133970399E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.23514499058402</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" t="n">
-        <v>0.322754007773647</v>
+      <c r="C86">
+        <v>0.32275400777364699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>